--- a/Class Details/DS5 -  Class Detail.xlsx
+++ b/Class Details/DS5 -  Class Detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Class Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D692F2-BA69-417D-8ECD-11407128DBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5464C6-8C0A-4028-ACBF-A177CA474B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS5-Class Detail" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Zone</t>
   </si>
@@ -112,13 +112,22 @@
     <t>Professional</t>
   </si>
   <si>
-    <t>Class Information - DS5</t>
-  </si>
-  <si>
     <t>Brs. Name</t>
   </si>
   <si>
     <t>Br.Hasan sayyed (+971 558912665)</t>
+  </si>
+  <si>
+    <t>Dy.Nazim</t>
+  </si>
+  <si>
+    <t>Br.Sibtain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 505648316</t>
+  </si>
+  <si>
+    <t>Class Information</t>
   </si>
 </sst>
 </file>
@@ -335,6 +344,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -361,12 +376,6 @@
     </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -687,120 +696,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="20">
+        <v>44570</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="18">
-        <v>44570</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
+    <row r="11" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11"/>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -808,21 +817,23 @@
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -830,10 +841,10 @@
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -841,10 +852,10 @@
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -852,10 +863,10 @@
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -863,34 +874,34 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
@@ -898,10 +909,10 @@
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
@@ -909,10 +920,10 @@
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
@@ -920,10 +931,10 @@
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -931,10 +942,10 @@
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
@@ -942,17 +953,30 @@
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="3"/>
     </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>15</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="A1:E1"/>

--- a/Class Details/DS5 -  Class Detail.xlsx
+++ b/Class Details/DS5 -  Class Detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Class Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5464C6-8C0A-4028-ACBF-A177CA474B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A11A5E-21B1-4D09-B445-1DCC7BA3310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS5-Class Detail" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Zone</t>
   </si>
@@ -43,27 +43,6 @@
     <t>BR TANWEER GHEEWALA</t>
   </si>
   <si>
-    <t>BR SIBTAIN</t>
-  </si>
-  <si>
-    <t>BR SHUJAAT</t>
-  </si>
-  <si>
-    <t>BR SOHAIL</t>
-  </si>
-  <si>
-    <t>BR HYDER</t>
-  </si>
-  <si>
-    <t>BR SAJJAD</t>
-  </si>
-  <si>
-    <t>BR QAIS</t>
-  </si>
-  <si>
-    <t>BR HASAN</t>
-  </si>
-  <si>
     <t>BR ZAHEER ABBAS THADADRA</t>
   </si>
   <si>
@@ -100,9 +79,6 @@
     <t>Resp. Br.Mohd Raza Marchant</t>
   </si>
   <si>
-    <t xml:space="preserve"> +971 564627373</t>
-  </si>
-  <si>
     <t>Class Started</t>
   </si>
   <si>
@@ -128,6 +104,70 @@
   </si>
   <si>
     <t>Class Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 505485475
++971 504616125
++971 509029051</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 508845363</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 502033795</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 552351122</t>
+  </si>
+  <si>
+    <t>BR HYDER RIZVI</t>
+  </si>
+  <si>
+    <t>BR SOHAIL NOORANI</t>
+  </si>
+  <si>
+    <t>BR SHUJAAT HUSAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR SIBTAIN </t>
+  </si>
+  <si>
+    <t>BR SAJJAD MAKNOJIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 508991972</t>
+  </si>
+  <si>
+    <t>BR QAIS UMATIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 507856139</t>
+  </si>
+  <si>
+    <t>BR HASAN SAYED (NAHDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 558912665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 564627373
+ +971 585937214
+ +971 588662110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 504259504</t>
+  </si>
+  <si>
+    <t>Transferred</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 589721692</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 502658855</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 589602320</t>
   </si>
 </sst>
 </file>
@@ -307,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -376,6 +416,9 @@
     </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -697,7 +740,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -717,11 +760,11 @@
     </row>
     <row r="3" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
@@ -732,14 +775,14 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="20">
@@ -754,7 +797,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
@@ -765,18 +808,18 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
@@ -786,32 +829,34 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
     </row>
@@ -820,10 +865,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
@@ -833,9 +878,11 @@
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
     </row>
@@ -844,9 +891,11 @@
         <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="3"/>
     </row>
@@ -855,9 +904,11 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
     </row>
@@ -866,9 +917,11 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="3"/>
     </row>
@@ -877,21 +930,23 @@
         <v>7</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>8</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3"/>
@@ -901,9 +956,11 @@
         <v>9</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="3"/>
     </row>
@@ -912,9 +969,11 @@
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="3"/>
     </row>
@@ -923,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
@@ -934,9 +993,11 @@
         <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="3"/>
     </row>
@@ -945,9 +1006,11 @@
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="3"/>
     </row>
@@ -956,9 +1019,11 @@
         <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="3"/>
     </row>
@@ -967,9 +1032,11 @@
         <v>15</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="3"/>
     </row>

--- a/Class Details/DS5 -  Class Detail.xlsx
+++ b/Class Details/DS5 -  Class Detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Class Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A11A5E-21B1-4D09-B445-1DCC7BA3310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949EC498-DCCA-42C7-A7A6-E851D9BEA619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Zone</t>
   </si>
@@ -168,6 +168,48 @@
   </si>
   <si>
     <t xml:space="preserve"> +971 589602320</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +971 559219095</t>
+  </si>
+  <si>
+    <t>tanvir-husein@hotmail.com</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>razisibtain@gmail.com</t>
+  </si>
+  <si>
+    <t>Technical Support</t>
+  </si>
+  <si>
+    <t>Sajjadmaknojia110@gmail.com</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>kaisali@gmail.com</t>
+  </si>
+  <si>
+    <t>Sales manager</t>
+  </si>
+  <si>
+    <t>ztharadra@gmmail.com</t>
+  </si>
+  <si>
+    <t>Banker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sayyedravish@gmail.com</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Software engineer</t>
   </si>
 </sst>
 </file>
@@ -347,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -357,15 +399,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,6 +420,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -416,9 +455,6 @@
     </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,121 +762,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="44.19921875" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.69921875" customWidth="1"/>
-    <col min="4" max="4" width="30.8984375" customWidth="1"/>
+    <col min="4" max="4" width="35.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="20">
+      <c r="B5" s="12"/>
+      <c r="C5" s="19">
         <v>44570</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -848,196 +884,226 @@
       <c r="B11"/>
     </row>
     <row r="12" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>6</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>7</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>9</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>10</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>11</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>12</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>13</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>14</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>15</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
   </sheetData>
@@ -1058,7 +1124,14 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{99862793-6BAE-42C9-BC13-5EE89FDF23E9}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{D4598B06-B042-49CF-83E2-BEEBB634E37A}"/>
+    <hyperlink ref="D17" r:id="rId3" xr:uid="{5A5D1460-C76B-48EC-AD04-4BCB58A65511}"/>
+    <hyperlink ref="D18" r:id="rId4" xr:uid="{241BFCD1-B261-48F1-9A9F-63D5BF6899B9}"/>
+    <hyperlink ref="D20" r:id="rId5" xr:uid="{71A43E58-FF0A-4F6E-936C-4A8964D7B1A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>